--- a/stream-dash/recalls_complete.xlsx
+++ b/stream-dash/recalls_complete.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="113">
   <si>
     <t>tipo</t>
   </si>
@@ -79,225 +79,234 @@
     <t>TOMADOR</t>
   </si>
   <si>
+    <t>120</t>
+  </si>
+  <si>
     <t>3701</t>
   </si>
   <si>
-    <t>120</t>
+    <t>1130</t>
   </si>
   <si>
     <t>72</t>
   </si>
   <si>
-    <t>1130</t>
+    <t>107</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>GENIAL CCTVM SA</t>
+  </si>
+  <si>
+    <t>ORAMA DTVM</t>
+  </si>
+  <si>
+    <t>STONEX DTVM LTDA</t>
+  </si>
+  <si>
+    <t>BRADESCO SA CTVM</t>
+  </si>
+  <si>
+    <t>TERRA INVS DTVM LTDA</t>
+  </si>
+  <si>
+    <t>BGC LIQUIDEZ DTVM</t>
+  </si>
+  <si>
+    <t>BTG PACTUAL CTVM SA</t>
+  </si>
+  <si>
+    <t>NECTON INVS SA</t>
+  </si>
+  <si>
+    <t>270363</t>
+  </si>
+  <si>
+    <t>684673</t>
+  </si>
+  <si>
+    <t>270366</t>
+  </si>
+  <si>
+    <t>684473</t>
+  </si>
+  <si>
+    <t>683603</t>
+  </si>
+  <si>
+    <t>494043</t>
+  </si>
+  <si>
+    <t>2023110700526347060001-1</t>
+  </si>
+  <si>
+    <t>2023110700526347200001-1</t>
+  </si>
+  <si>
+    <t>2023110100523810090001-1</t>
+  </si>
+  <si>
+    <t>2023110800526626940001-1</t>
+  </si>
+  <si>
+    <t>2023101100516441960001-1</t>
+  </si>
+  <si>
+    <t>2023101100516441970001-1</t>
+  </si>
+  <si>
+    <t>2023101100516441980001-1</t>
+  </si>
+  <si>
+    <t>2023101100516442000001-1</t>
+  </si>
+  <si>
+    <t>2023101100516442030001-1</t>
+  </si>
+  <si>
+    <t>2023101100516442040001-1</t>
+  </si>
+  <si>
+    <t>2023101100516442060001-1</t>
+  </si>
+  <si>
+    <t>2023101100516442070001-1</t>
+  </si>
+  <si>
+    <t>2023101100516442080001-1</t>
+  </si>
+  <si>
+    <t>2023110300525065180001-1</t>
+  </si>
+  <si>
+    <t>2023102300520505120001-1</t>
+  </si>
+  <si>
+    <t>2023102300520505140001-1</t>
+  </si>
+  <si>
+    <t>2023110800512215160001-2</t>
+  </si>
+  <si>
+    <t>2023110800526988850001-1</t>
+  </si>
+  <si>
+    <t>2023110800526988920001-1</t>
+  </si>
+  <si>
+    <t>2023110800526988980001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989010001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989470001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989600001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989610001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989630001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989640001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989650001-1</t>
+  </si>
+  <si>
+    <t>2023110800526989670001-1</t>
+  </si>
+  <si>
+    <t>2023102500453308800001-2</t>
+  </si>
+  <si>
+    <t>2023082400496953410001-1</t>
+  </si>
+  <si>
+    <t>2023102000479153410001-2</t>
+  </si>
+  <si>
+    <t>2023102000479153530001-2</t>
+  </si>
+  <si>
+    <t>2023102700511282800001-2</t>
+  </si>
+  <si>
+    <t>2023110800497698310001-2</t>
+  </si>
+  <si>
+    <t>2023100900475898110001-2</t>
+  </si>
+  <si>
+    <t>2023100900475898540001-2</t>
+  </si>
+  <si>
+    <t>2023100900475900320001-2</t>
+  </si>
+  <si>
+    <t>2023100900475901490001-2</t>
+  </si>
+  <si>
+    <t>2023103000494262010001-2</t>
+  </si>
+  <si>
+    <t>21016</t>
+  </si>
+  <si>
+    <t>BRFS3</t>
+  </si>
+  <si>
+    <t>CMIN3</t>
+  </si>
+  <si>
+    <t>VALE3</t>
+  </si>
+  <si>
+    <t>ARZZ3</t>
+  </si>
+  <si>
+    <t>AZUL4</t>
+  </si>
+  <si>
+    <t>CYRE3</t>
+  </si>
+  <si>
+    <t>ENEV3</t>
+  </si>
+  <si>
+    <t>MGLU3</t>
+  </si>
+  <si>
+    <t>MRVE3</t>
+  </si>
+  <si>
+    <t>MULT3</t>
+  </si>
+  <si>
+    <t>M1TA34</t>
+  </si>
+  <si>
+    <t>TOTS3</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>ORAMA DTVM</t>
-  </si>
-  <si>
-    <t>GENIAL CCTVM SA</t>
-  </si>
-  <si>
-    <t>BRADESCO SA CTVM</t>
-  </si>
-  <si>
-    <t>STONEX DTVM LTDA</t>
-  </si>
-  <si>
-    <t>XP INVS CCTVM SA</t>
-  </si>
-  <si>
-    <t>BGC LIQUIDEZ DTVM</t>
-  </si>
-  <si>
-    <t>270363</t>
-  </si>
-  <si>
-    <t>270366</t>
-  </si>
-  <si>
-    <t>683603</t>
-  </si>
-  <si>
-    <t>684589</t>
-  </si>
-  <si>
-    <t>494043</t>
-  </si>
-  <si>
-    <t>2023110700526131360001-1</t>
-  </si>
-  <si>
-    <t>2023110700526131310001-1</t>
-  </si>
-  <si>
-    <t>2023103000514186260001-2</t>
-  </si>
-  <si>
-    <t>2023101300516777710001-1</t>
-  </si>
-  <si>
-    <t>2023101700517643420001-1</t>
-  </si>
-  <si>
-    <t>2023110300524741540001-1</t>
-  </si>
-  <si>
-    <t>2023110700526131280001-1</t>
-  </si>
-  <si>
-    <t>2023102700522216840001-1</t>
-  </si>
-  <si>
-    <t>2023110300524741280001-1</t>
-  </si>
-  <si>
-    <t>2023103100470457960001-2</t>
-  </si>
-  <si>
-    <t>2023101000500859700001-2</t>
-  </si>
-  <si>
-    <t>2023110100523810120001-1</t>
-  </si>
-  <si>
-    <t>2023110600496519470001-2</t>
-  </si>
-  <si>
-    <t>2023102700522216340001-1</t>
-  </si>
-  <si>
-    <t>2023100600514325560001-1</t>
-  </si>
-  <si>
-    <t>2023100900500226260001-2</t>
-  </si>
-  <si>
-    <t>2023110100513699150001-2</t>
-  </si>
-  <si>
-    <t>2023102400520848710001-1</t>
-  </si>
-  <si>
-    <t>2023110300514398810001-2</t>
-  </si>
-  <si>
-    <t>2023101700489302820001-2</t>
-  </si>
-  <si>
-    <t>2023101700489304110001-2</t>
-  </si>
-  <si>
-    <t>2023101700489304550001-2</t>
-  </si>
-  <si>
-    <t>2023101700489304860001-2</t>
-  </si>
-  <si>
-    <t>2023101700489305150001-2</t>
-  </si>
-  <si>
-    <t>2023101700489305320001-2</t>
-  </si>
-  <si>
-    <t>2023101700489305370001-2</t>
-  </si>
-  <si>
-    <t>2023101700517731200001-1</t>
-  </si>
-  <si>
-    <t>2023101700517732170001-1</t>
-  </si>
-  <si>
-    <t>2023101700517732740001-1</t>
-  </si>
-  <si>
-    <t>2023101700517733010001-1</t>
-  </si>
-  <si>
-    <t>2023102700508745310001-2</t>
-  </si>
-  <si>
-    <t>2023102700508745910001-2</t>
-  </si>
-  <si>
-    <t>2023100900475897850001-2</t>
-  </si>
-  <si>
-    <t>2023100900475899650001-2</t>
-  </si>
-  <si>
-    <t>2023101100476615110001-2</t>
-  </si>
-  <si>
-    <t>2023101300476812420001-2</t>
-  </si>
-  <si>
-    <t>2023100500499037680001-2</t>
-  </si>
-  <si>
-    <t>21016</t>
-  </si>
-  <si>
-    <t>AURE3</t>
-  </si>
-  <si>
-    <t>AZUL4</t>
-  </si>
-  <si>
-    <t>BRFS3</t>
-  </si>
-  <si>
-    <t>ITUB4</t>
-  </si>
-  <si>
-    <t>MRFG3</t>
-  </si>
-  <si>
-    <t>PSSA3</t>
-  </si>
-  <si>
-    <t>VALE3</t>
-  </si>
-  <si>
-    <t>VBBR3</t>
-  </si>
-  <si>
-    <t>B3SA3</t>
-  </si>
-  <si>
-    <t>CASH3</t>
-  </si>
-  <si>
-    <t>GGBR4</t>
-  </si>
-  <si>
-    <t>GOLL4</t>
-  </si>
-  <si>
-    <t>NTCO3</t>
-  </si>
-  <si>
-    <t>SBSP3</t>
-  </si>
-  <si>
-    <t>TOTS3</t>
-  </si>
-  <si>
-    <t>VAMO3</t>
-  </si>
-  <si>
-    <t>YDUQ3</t>
-  </si>
-  <si>
-    <t>1099</t>
-  </si>
-  <si>
     <t>BALCAO</t>
   </si>
   <si>
@@ -307,34 +316,43 @@
     <t>KAPITALO ZETA MASTER FIM</t>
   </si>
   <si>
+    <t>KAPITALO KAPPA PREV MASTER FIM</t>
+  </si>
+  <si>
     <t>KAPITALO KAPPA MASTER FIM</t>
   </si>
   <si>
+    <t>KAPITALO ZETA MASTER FIA</t>
+  </si>
+  <si>
     <t>KAPITALO K10 PREV MASTER FIM</t>
   </si>
   <si>
-    <t>KAPITALO MASTER V FIM</t>
-  </si>
-  <si>
     <t>KAPITALO TARKUS MASTER FIA</t>
   </si>
   <si>
+    <t>Plural</t>
+  </si>
+  <si>
     <t>Orama</t>
   </si>
   <si>
-    <t>Plural</t>
+    <t>FC Stone</t>
   </si>
   <si>
     <t>Bradesco</t>
   </si>
   <si>
-    <t>FC Stone</t>
-  </si>
-  <si>
-    <t>XP</t>
+    <t>Terra</t>
   </si>
   <si>
     <t>Liquidez</t>
+  </si>
+  <si>
+    <t>BTG Pactual</t>
+  </si>
+  <si>
+    <t>Concordia</t>
   </si>
 </sst>
 </file>
@@ -696,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T38"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -772,28 +790,28 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>20000</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2">
         <v>45237</v>
@@ -802,7 +820,7 @@
         <v>45278</v>
       </c>
       <c r="N2">
-        <v>13.83</v>
+        <v>12.45</v>
       </c>
       <c r="O2" t="s">
         <v>21</v>
@@ -811,16 +829,16 @@
         <v>20</v>
       </c>
       <c r="Q2" s="2">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="R2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -834,28 +852,28 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="I3">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="J3">
-        <v>400</v>
+        <v>10000</v>
       </c>
       <c r="K3">
-        <v>0.16</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2">
         <v>45237</v>
@@ -864,7 +882,7 @@
         <v>45278</v>
       </c>
       <c r="N3">
-        <v>13.84</v>
+        <v>12.45</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
@@ -873,16 +891,16 @@
         <v>20</v>
       </c>
       <c r="Q3" s="2">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="R3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -893,58 +911,58 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I4">
-        <v>340</v>
+        <v>800</v>
       </c>
       <c r="J4">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="K4">
-        <v>20</v>
+        <v>37.97</v>
       </c>
       <c r="L4" s="2">
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="M4" s="2">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="N4">
-        <v>10.64</v>
+        <v>5.16</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="2">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="R4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -955,58 +973,58 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K5">
-        <v>0.04</v>
+        <v>0.58</v>
       </c>
       <c r="L5" s="2">
-        <v>45212</v>
+        <v>45238</v>
       </c>
       <c r="M5" s="2">
-        <v>45254</v>
+        <v>45279</v>
       </c>
       <c r="N5">
-        <v>27.82</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="2">
-        <v>45239</v>
+        <v>45240</v>
       </c>
       <c r="R5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1014,61 +1032,61 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>17927</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>17927</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>7.24</v>
       </c>
       <c r="L6" s="2">
-        <v>45216</v>
+        <v>45210</v>
       </c>
       <c r="M6" s="2">
-        <v>45258</v>
+        <v>45253</v>
       </c>
       <c r="N6">
-        <v>27.7</v>
+        <v>67.19</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1076,61 +1094,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I7">
-        <v>500</v>
+        <v>5241</v>
       </c>
       <c r="J7">
-        <v>500</v>
+        <v>5241</v>
       </c>
       <c r="K7">
-        <v>0.05</v>
+        <v>7.24</v>
       </c>
       <c r="L7" s="2">
-        <v>45233</v>
+        <v>45210</v>
       </c>
       <c r="M7" s="2">
-        <v>45274</v>
+        <v>45253</v>
       </c>
       <c r="N7">
-        <v>26.85</v>
+        <v>67.19</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1138,61 +1156,61 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>14939</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>14939</v>
       </c>
       <c r="K8">
-        <v>0.1</v>
+        <v>7.24</v>
       </c>
       <c r="L8" s="2">
-        <v>45237</v>
+        <v>45210</v>
       </c>
       <c r="M8" s="2">
-        <v>45278</v>
+        <v>45253</v>
       </c>
       <c r="N8">
-        <v>28.08</v>
+        <v>67.19</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1200,61 +1218,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I9">
-        <v>500</v>
+        <v>28379</v>
       </c>
       <c r="J9">
-        <v>500</v>
+        <v>28379</v>
       </c>
       <c r="K9">
-        <v>3.91</v>
+        <v>7.24</v>
       </c>
       <c r="L9" s="2">
-        <v>45226</v>
+        <v>45210</v>
       </c>
       <c r="M9" s="2">
-        <v>45268</v>
+        <v>45253</v>
       </c>
       <c r="N9">
-        <v>6.47</v>
+        <v>67.19</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1262,61 +1280,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>68669</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>68669</v>
       </c>
       <c r="K10">
-        <v>3.41</v>
+        <v>7.24</v>
       </c>
       <c r="L10" s="2">
-        <v>45233</v>
+        <v>45210</v>
       </c>
       <c r="M10" s="2">
-        <v>45274</v>
+        <v>45253</v>
       </c>
       <c r="N10">
-        <v>6.49</v>
+        <v>67.19</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1324,61 +1342,61 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>27013</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>27013</v>
       </c>
       <c r="K11">
-        <v>0.45</v>
+        <v>7.24</v>
       </c>
       <c r="L11" s="2">
-        <v>45230</v>
+        <v>45210</v>
       </c>
       <c r="M11" s="2">
-        <v>45272</v>
+        <v>45253</v>
       </c>
       <c r="N11">
-        <v>25.23</v>
+        <v>67.19</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T11" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1386,61 +1404,61 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I12">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="J12">
-        <v>600</v>
+        <v>562</v>
       </c>
       <c r="K12">
-        <v>0.03</v>
+        <v>7.24</v>
       </c>
       <c r="L12" s="2">
-        <v>45209</v>
+        <v>45210</v>
       </c>
       <c r="M12" s="2">
-        <v>45252</v>
+        <v>45253</v>
       </c>
       <c r="N12">
-        <v>65.93000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S12" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1448,61 +1466,61 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I13">
-        <v>400</v>
+        <v>22778</v>
       </c>
       <c r="J13">
-        <v>400</v>
+        <v>22778</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
+        <v>7.24</v>
       </c>
       <c r="L13" s="2">
-        <v>45231</v>
+        <v>45210</v>
       </c>
       <c r="M13" s="2">
-        <v>45273</v>
+        <v>45253</v>
       </c>
       <c r="N13">
-        <v>68.84999999999999</v>
+        <v>67.19</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R13" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1510,61 +1528,61 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I14">
-        <v>300</v>
+        <v>18133</v>
       </c>
       <c r="J14">
-        <v>300</v>
+        <v>18133</v>
       </c>
       <c r="K14">
-        <v>0.72</v>
+        <v>7.24</v>
       </c>
       <c r="L14" s="2">
-        <v>45236</v>
+        <v>45210</v>
       </c>
       <c r="M14" s="2">
-        <v>45275</v>
+        <v>45253</v>
       </c>
       <c r="N14">
-        <v>71.29000000000001</v>
+        <v>67.19</v>
       </c>
       <c r="O14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T14" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1572,61 +1590,61 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15">
+        <v>5227</v>
+      </c>
+      <c r="K15">
+        <v>0.18</v>
+      </c>
+      <c r="L15" s="2">
+        <v>45233</v>
+      </c>
+      <c r="M15" s="2">
+        <v>45266</v>
+      </c>
+      <c r="N15">
+        <v>12.92</v>
+      </c>
+      <c r="O15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15">
-        <v>300</v>
-      </c>
-      <c r="J15">
-        <v>300</v>
-      </c>
-      <c r="K15">
-        <v>0.1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>45226</v>
-      </c>
-      <c r="M15" s="2">
-        <v>45268</v>
-      </c>
-      <c r="N15">
-        <v>20.47</v>
-      </c>
-      <c r="O15" t="s">
-        <v>21</v>
-      </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="2">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="R15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="S15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="T15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1637,58 +1655,58 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s">
         <v>84</v>
       </c>
       <c r="I16">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="J16">
-        <v>1400</v>
+        <v>400</v>
       </c>
       <c r="K16">
-        <v>0.02</v>
+        <v>20</v>
       </c>
       <c r="L16" s="2">
-        <v>45205</v>
+        <v>45222</v>
       </c>
       <c r="M16" s="2">
-        <v>45250</v>
+        <v>45264</v>
       </c>
       <c r="N16">
-        <v>11.7</v>
+        <v>4.71</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="P16" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S16" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="T16" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1699,58 +1717,58 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17">
-        <v>696</v>
+        <v>280</v>
       </c>
       <c r="J17">
-        <v>696</v>
+        <v>1040</v>
       </c>
       <c r="K17">
-        <v>2.67</v>
+        <v>20</v>
       </c>
       <c r="L17" s="2">
-        <v>45208</v>
+        <v>45222</v>
       </c>
       <c r="M17" s="2">
-        <v>45251</v>
+        <v>45264</v>
       </c>
       <c r="N17">
-        <v>6.44</v>
+        <v>4.71</v>
       </c>
       <c r="O17" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="T17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1761,58 +1779,58 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="J18">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="K18">
-        <v>0.96</v>
+        <v>36.82</v>
       </c>
       <c r="L18" s="2">
-        <v>45231</v>
+        <v>45238</v>
       </c>
       <c r="M18" s="2">
-        <v>45264</v>
+        <v>45279</v>
       </c>
       <c r="N18">
-        <v>21.85</v>
+        <v>5.76</v>
       </c>
       <c r="O18" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="P18" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S18" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="T18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1823,58 +1841,58 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>1545</v>
       </c>
       <c r="J19">
-        <v>10</v>
+        <v>1545</v>
       </c>
       <c r="K19">
-        <v>56.82</v>
+        <v>0.59</v>
       </c>
       <c r="L19" s="2">
-        <v>45223</v>
+        <v>45238</v>
       </c>
       <c r="M19" s="2">
-        <v>45265</v>
+        <v>45279</v>
       </c>
       <c r="N19">
-        <v>7.19</v>
+        <v>20.17</v>
       </c>
       <c r="O19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P19" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T19" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1885,58 +1903,58 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s">
         <v>88</v>
       </c>
       <c r="I20">
-        <v>1200</v>
+        <v>222</v>
       </c>
       <c r="J20">
-        <v>1200</v>
+        <v>222</v>
       </c>
       <c r="K20">
-        <v>0.02</v>
+        <v>0.59</v>
       </c>
       <c r="L20" s="2">
-        <v>45233</v>
+        <v>45238</v>
       </c>
       <c r="M20" s="2">
-        <v>45266</v>
+        <v>45279</v>
       </c>
       <c r="N20">
-        <v>12.62</v>
+        <v>20.17</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="P20" t="s">
         <v>19</v>
       </c>
       <c r="Q20" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S20" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="T20" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1947,40 +1965,40 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21">
-        <v>38</v>
+        <v>1892</v>
       </c>
       <c r="J21">
-        <v>85</v>
+        <v>1892</v>
       </c>
       <c r="K21">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L21" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M21" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N21">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O21" t="s">
         <v>25</v>
@@ -1989,16 +2007,16 @@
         <v>19</v>
       </c>
       <c r="Q21" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R21" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -2009,40 +2027,40 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I22">
-        <v>39</v>
+        <v>1184</v>
       </c>
       <c r="J22">
-        <v>86</v>
+        <v>1184</v>
       </c>
       <c r="K22">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L22" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M22" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N22">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O22" t="s">
         <v>25</v>
@@ -2051,16 +2069,16 @@
         <v>19</v>
       </c>
       <c r="Q22" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R22" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S22" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="T22" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -2071,40 +2089,40 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I23">
-        <v>42</v>
+        <v>32628</v>
       </c>
       <c r="J23">
-        <v>91</v>
+        <v>32628</v>
       </c>
       <c r="K23">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L23" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M23" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N23">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O23" t="s">
         <v>25</v>
@@ -2113,16 +2131,16 @@
         <v>19</v>
       </c>
       <c r="Q23" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R23" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S23" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T23" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -2133,40 +2151,40 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24">
-        <v>41</v>
+        <v>12955</v>
       </c>
       <c r="J24">
-        <v>86</v>
+        <v>12955</v>
       </c>
       <c r="K24">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L24" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M24" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N24">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O24" t="s">
         <v>25</v>
@@ -2175,16 +2193,16 @@
         <v>19</v>
       </c>
       <c r="Q24" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R24" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S24" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T24" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2195,40 +2213,40 @@
         <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I25">
-        <v>34</v>
+        <v>10798</v>
       </c>
       <c r="J25">
-        <v>82</v>
+        <v>10798</v>
       </c>
       <c r="K25">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L25" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M25" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N25">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O25" t="s">
         <v>25</v>
@@ -2237,16 +2255,16 @@
         <v>19</v>
       </c>
       <c r="Q25" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R25" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S25" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2257,40 +2275,40 @@
         <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I26">
-        <v>72</v>
+        <v>7237</v>
       </c>
       <c r="J26">
-        <v>74</v>
+        <v>7237</v>
       </c>
       <c r="K26">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L26" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M26" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N26">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O26" t="s">
         <v>25</v>
@@ -2299,16 +2317,16 @@
         <v>19</v>
       </c>
       <c r="Q26" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R26" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S26" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T26" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2319,40 +2337,40 @@
         <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I27">
-        <v>40</v>
+        <v>13842</v>
       </c>
       <c r="J27">
-        <v>40</v>
+        <v>13842</v>
       </c>
       <c r="K27">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L27" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M27" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N27">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O27" t="s">
         <v>25</v>
@@ -2361,16 +2379,16 @@
         <v>19</v>
       </c>
       <c r="Q27" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R27" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T27" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2384,37 +2402,37 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G28" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28">
-        <v>314</v>
+        <v>8205</v>
       </c>
       <c r="J28">
-        <v>792</v>
+        <v>8205</v>
       </c>
       <c r="K28">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L28" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M28" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N28">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O28" t="s">
         <v>25</v>
@@ -2423,16 +2441,16 @@
         <v>19</v>
       </c>
       <c r="Q28" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2446,37 +2464,37 @@
         <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I29">
-        <v>300</v>
+        <v>8109</v>
       </c>
       <c r="J29">
-        <v>633</v>
+        <v>8109</v>
       </c>
       <c r="K29">
-        <v>0.05</v>
+        <v>0.59</v>
       </c>
       <c r="L29" s="2">
-        <v>45216</v>
+        <v>45238</v>
       </c>
       <c r="M29" s="2">
-        <v>45258</v>
+        <v>45279</v>
       </c>
       <c r="N29">
-        <v>62.43</v>
+        <v>20.17</v>
       </c>
       <c r="O29" t="s">
         <v>25</v>
@@ -2485,16 +2503,16 @@
         <v>19</v>
       </c>
       <c r="Q29" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R29" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="T29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2505,58 +2523,58 @@
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G30" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
         <v>89</v>
       </c>
       <c r="I30">
-        <v>171</v>
+        <v>8493</v>
       </c>
       <c r="J30">
-        <v>519</v>
+        <v>8493</v>
       </c>
       <c r="K30">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L30" s="2">
-        <v>45216</v>
+        <v>45224</v>
       </c>
       <c r="M30" s="2">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="N30">
-        <v>62.43</v>
+        <v>11.26</v>
       </c>
       <c r="O30" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="P30" t="s">
         <v>19</v>
       </c>
       <c r="Q30" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T30" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2567,58 +2585,58 @@
         <v>20</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I31">
-        <v>179</v>
+        <v>3600</v>
       </c>
       <c r="J31">
-        <v>606</v>
+        <v>3600</v>
       </c>
       <c r="K31">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="L31" s="2">
-        <v>45216</v>
+        <v>45162</v>
       </c>
       <c r="M31" s="2">
         <v>45258</v>
       </c>
       <c r="N31">
-        <v>62.43</v>
+        <v>3.02</v>
       </c>
       <c r="O31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P31" t="s">
         <v>19</v>
       </c>
       <c r="Q31" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S31" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="T31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2629,58 +2647,58 @@
         <v>20</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J32">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="K32">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="L32" s="2">
-        <v>45226</v>
+        <v>45219</v>
       </c>
       <c r="M32" s="2">
-        <v>45268</v>
+        <v>45261</v>
       </c>
       <c r="N32">
-        <v>60.74</v>
+        <v>8.34</v>
       </c>
       <c r="O32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P32" t="s">
         <v>19</v>
       </c>
       <c r="Q32" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S32" t="s">
         <v>99</v>
       </c>
       <c r="T32" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2691,58 +2709,58 @@
         <v>20</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J33">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="K33">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="L33" s="2">
-        <v>45226</v>
+        <v>45219</v>
       </c>
       <c r="M33" s="2">
-        <v>45268</v>
+        <v>45261</v>
       </c>
       <c r="N33">
-        <v>60.74</v>
+        <v>8.34</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P33" t="s">
         <v>19</v>
       </c>
       <c r="Q33" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S33" t="s">
         <v>99</v>
       </c>
       <c r="T33" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2753,58 +2771,58 @@
         <v>20</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I34">
-        <v>900</v>
+        <v>375</v>
       </c>
       <c r="J34">
-        <v>900</v>
+        <v>375</v>
       </c>
       <c r="K34">
-        <v>0.11</v>
+        <v>9.51</v>
       </c>
       <c r="L34" s="2">
-        <v>45208</v>
+        <v>45226</v>
       </c>
       <c r="M34" s="2">
-        <v>45251</v>
+        <v>45259</v>
       </c>
       <c r="N34">
-        <v>26.41</v>
+        <v>25.62</v>
       </c>
       <c r="O34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P34" t="s">
         <v>19</v>
       </c>
       <c r="Q34" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R34" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="S34" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="T34" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2815,58 +2833,58 @@
         <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I35">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="J35">
-        <v>2000</v>
+        <v>27</v>
       </c>
       <c r="K35">
-        <v>0.11</v>
+        <v>11.99</v>
       </c>
       <c r="L35" s="2">
-        <v>45208</v>
+        <v>45238</v>
       </c>
       <c r="M35" s="2">
-        <v>45251</v>
+        <v>45279</v>
       </c>
       <c r="N35">
-        <v>26.41</v>
+        <v>55.49</v>
       </c>
       <c r="O35" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="P35" t="s">
         <v>19</v>
       </c>
       <c r="Q35" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R35" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S35" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="T35" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2877,55 +2895,55 @@
         <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I36">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="J36">
-        <v>6000</v>
+        <v>600</v>
       </c>
       <c r="K36">
-        <v>0.6899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="L36" s="2">
-        <v>45210</v>
+        <v>45208</v>
       </c>
       <c r="M36" s="2">
-        <v>45253</v>
+        <v>45251</v>
       </c>
       <c r="N36">
-        <v>9.09</v>
+        <v>26.41</v>
       </c>
       <c r="O36" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="P36" t="s">
         <v>19</v>
       </c>
       <c r="Q36" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R36" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S36" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T36" t="s">
         <v>105</v>
@@ -2939,58 +2957,58 @@
         <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I37">
-        <v>623</v>
+        <v>400</v>
       </c>
       <c r="J37">
-        <v>623</v>
+        <v>800</v>
       </c>
       <c r="K37">
-        <v>0.6899999999999999</v>
+        <v>0.11</v>
       </c>
       <c r="L37" s="2">
-        <v>45212</v>
+        <v>45208</v>
       </c>
       <c r="M37" s="2">
-        <v>45254</v>
+        <v>45251</v>
       </c>
       <c r="N37">
-        <v>8.970000000000001</v>
+        <v>26.41</v>
       </c>
       <c r="O37" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="P37" t="s">
         <v>19</v>
       </c>
       <c r="Q37" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R37" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="S37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="T37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -3001,58 +3019,182 @@
         <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I38">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="J38">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="K38">
-        <v>3.52</v>
+        <v>0.11</v>
       </c>
       <c r="L38" s="2">
-        <v>45204</v>
+        <v>45208</v>
       </c>
       <c r="M38" s="2">
-        <v>45247</v>
+        <v>45251</v>
       </c>
       <c r="N38">
-        <v>20.6</v>
+        <v>26.41</v>
       </c>
       <c r="O38" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="P38" t="s">
         <v>19</v>
       </c>
       <c r="Q38" s="2">
-        <v>45240</v>
+        <v>45243</v>
       </c>
       <c r="R38" t="s">
+        <v>97</v>
+      </c>
+      <c r="S38" t="s">
+        <v>99</v>
+      </c>
+      <c r="T38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
+      <c r="H39" t="s">
         <v>94</v>
       </c>
-      <c r="S38" t="s">
-        <v>100</v>
-      </c>
-      <c r="T38" t="s">
-        <v>106</v>
+      <c r="I39">
+        <v>919</v>
+      </c>
+      <c r="J39">
+        <v>919</v>
+      </c>
+      <c r="K39">
+        <v>0.11</v>
+      </c>
+      <c r="L39" s="2">
+        <v>45208</v>
+      </c>
+      <c r="M39" s="2">
+        <v>45251</v>
+      </c>
+      <c r="N39">
+        <v>26.41</v>
+      </c>
+      <c r="O39" t="s">
+        <v>96</v>
+      </c>
+      <c r="P39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>45243</v>
+      </c>
+      <c r="R39" t="s">
+        <v>97</v>
+      </c>
+      <c r="S39" t="s">
+        <v>99</v>
+      </c>
+      <c r="T39" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I40">
+        <v>200</v>
+      </c>
+      <c r="J40">
+        <v>200</v>
+      </c>
+      <c r="K40">
+        <v>0.34</v>
+      </c>
+      <c r="L40" s="2">
+        <v>45229</v>
+      </c>
+      <c r="M40" s="2">
+        <v>45271</v>
+      </c>
+      <c r="N40">
+        <v>26</v>
+      </c>
+      <c r="O40" t="s">
+        <v>96</v>
+      </c>
+      <c r="P40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>45243</v>
+      </c>
+      <c r="R40" t="s">
+        <v>97</v>
+      </c>
+      <c r="S40" t="s">
+        <v>104</v>
+      </c>
+      <c r="T40" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
